--- a/2 Семестр/2.1.6/2.1.6.xlsx
+++ b/2 Семестр/2.1.6/2.1.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3F8B0-0689-43E5-9FD7-4D969793F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B55496-BACA-48EA-B68F-713A6EBB4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1635,15 +1635,15 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <f>B28*8.31*5*8.31/(2*2)</f>
-        <v>68021.456177347703</v>
+        <f>B28*8.31*36/2</f>
+        <v>117871.11539757001</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
       </c>
       <c r="H28">
         <f>E28*B32/B28</f>
-        <v>5556.7365397255708</v>
+        <v>9629.0019460948497</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1658,15 +1658,15 @@
         <v>31</v>
       </c>
       <c r="E29">
-        <f>B29*(-1)*8.31*5/2</f>
-        <v>33.816349319967919</v>
+        <f>B29*(-1)*36</f>
+        <v>58.598728063482305</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
       </c>
       <c r="H29">
         <f>(-1)*E29*E32/B29</f>
-        <v>2.9001248303274565</v>
+        <v>5.0254870706035337</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
